--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3377,28 +3377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>971.7792524559172</v>
+        <v>1055.009785237992</v>
       </c>
       <c r="AB2" t="n">
-        <v>1329.63124508506</v>
+        <v>1443.510931909453</v>
       </c>
       <c r="AC2" t="n">
-        <v>1202.733105203314</v>
+        <v>1305.744274548332</v>
       </c>
       <c r="AD2" t="n">
-        <v>971779.2524559172</v>
+        <v>1055009.785237992</v>
       </c>
       <c r="AE2" t="n">
-        <v>1329631.24508506</v>
+        <v>1443510.931909453</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.378082655986951e-06</v>
+        <v>2.329717105172109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.70269097222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1202733.105203314</v>
+        <v>1305744.274548332</v>
       </c>
     </row>
     <row r="3">
@@ -3483,28 +3483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>482.7789502968217</v>
+        <v>534.6807791191336</v>
       </c>
       <c r="AB3" t="n">
-        <v>660.5594585002123</v>
+        <v>731.5738304419848</v>
       </c>
       <c r="AC3" t="n">
-        <v>597.516590881974</v>
+        <v>661.7534508349208</v>
       </c>
       <c r="AD3" t="n">
-        <v>482778.9502968217</v>
+        <v>534680.7791191336</v>
       </c>
       <c r="AE3" t="n">
-        <v>660559.4585002123</v>
+        <v>731573.8304419848</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.148445799249034e-06</v>
+        <v>3.632054221349283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.431423611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>597516.590881974</v>
+        <v>661753.4508349209</v>
       </c>
     </row>
     <row r="4">
@@ -3589,28 +3589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>396.7855443687916</v>
+        <v>438.3582298410944</v>
       </c>
       <c r="AB4" t="n">
-        <v>542.8994867481624</v>
+        <v>599.7810690688088</v>
       </c>
       <c r="AC4" t="n">
-        <v>491.0859216971323</v>
+        <v>542.5388056348984</v>
       </c>
       <c r="AD4" t="n">
-        <v>396785.5443687916</v>
+        <v>438358.2298410944</v>
       </c>
       <c r="AE4" t="n">
-        <v>542899.4867481624</v>
+        <v>599781.0690688088</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.441241680629459e-06</v>
+        <v>4.127040186242219e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.298611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>491085.9216971323</v>
+        <v>542538.8056348984</v>
       </c>
     </row>
     <row r="5">
@@ -3695,28 +3695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>352.201663508115</v>
+        <v>393.8596003264383</v>
       </c>
       <c r="AB5" t="n">
-        <v>481.8978540525781</v>
+        <v>538.8960810258736</v>
       </c>
       <c r="AC5" t="n">
-        <v>435.9061992096853</v>
+        <v>487.4645953981636</v>
       </c>
       <c r="AD5" t="n">
-        <v>352201.663508115</v>
+        <v>393859.6003264383</v>
       </c>
       <c r="AE5" t="n">
-        <v>481897.854052578</v>
+        <v>538896.0810258737</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.599683839654518e-06</v>
+        <v>4.394894517372102e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.79296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>435906.1992096853</v>
+        <v>487464.5953981636</v>
       </c>
     </row>
     <row r="6">
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>332.9571861482029</v>
+        <v>374.6151229665261</v>
       </c>
       <c r="AB6" t="n">
-        <v>455.566711122325</v>
+        <v>512.5649380956206</v>
       </c>
       <c r="AC6" t="n">
-        <v>412.0880636047044</v>
+        <v>463.6464597931827</v>
       </c>
       <c r="AD6" t="n">
-        <v>332957.1861482029</v>
+        <v>374615.1229665261</v>
       </c>
       <c r="AE6" t="n">
-        <v>455566.711122325</v>
+        <v>512564.9380956206</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.693703435493194e-06</v>
+        <v>4.553839309032557e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.521701388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>412088.0636047043</v>
+        <v>463646.4597931827</v>
       </c>
     </row>
     <row r="7">
@@ -3907,28 +3907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>317.0538770756303</v>
+        <v>358.5412216933615</v>
       </c>
       <c r="AB7" t="n">
-        <v>433.8071020447518</v>
+        <v>490.5719172432005</v>
       </c>
       <c r="AC7" t="n">
-        <v>392.4051610776916</v>
+        <v>443.7524219835188</v>
       </c>
       <c r="AD7" t="n">
-        <v>317053.8770756304</v>
+        <v>358541.2216933615</v>
       </c>
       <c r="AE7" t="n">
-        <v>433807.1020447519</v>
+        <v>490571.9172432005</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.765595281367852e-06</v>
+        <v>4.675376041483947e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>392405.1610776916</v>
+        <v>443752.4219835189</v>
       </c>
     </row>
     <row r="8">
@@ -4013,28 +4013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>305.2727724227797</v>
+        <v>336.5163145450732</v>
       </c>
       <c r="AB8" t="n">
-        <v>417.6876749130661</v>
+        <v>460.4364676125862</v>
       </c>
       <c r="AC8" t="n">
-        <v>377.8241494476959</v>
+        <v>416.4930573702812</v>
       </c>
       <c r="AD8" t="n">
-        <v>305272.7724227797</v>
+        <v>336516.3145450732</v>
       </c>
       <c r="AE8" t="n">
-        <v>417687.6749130661</v>
+        <v>460436.4676125862</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.814145618841647e-06</v>
+        <v>4.757452795866704e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.200520833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>377824.1494476959</v>
+        <v>416493.0573702812</v>
       </c>
     </row>
     <row r="9">
@@ -4119,28 +4119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>295.3639871292713</v>
+        <v>326.6075292515648</v>
       </c>
       <c r="AB9" t="n">
-        <v>404.1300377297329</v>
+        <v>446.878830429253</v>
       </c>
       <c r="AC9" t="n">
-        <v>365.5604341288766</v>
+        <v>404.229342051462</v>
       </c>
       <c r="AD9" t="n">
-        <v>295363.9871292713</v>
+        <v>326607.5292515648</v>
       </c>
       <c r="AE9" t="n">
-        <v>404130.0377297329</v>
+        <v>446878.8304292529</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.847570658871683e-06</v>
+        <v>4.813959484460987e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.115885416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>365560.4341288767</v>
+        <v>404229.342051462</v>
       </c>
     </row>
     <row r="10">
@@ -4225,28 +4225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>287.1046348669</v>
+        <v>318.3481769891935</v>
       </c>
       <c r="AB10" t="n">
-        <v>392.8292275874512</v>
+        <v>435.5780202869713</v>
       </c>
       <c r="AC10" t="n">
-        <v>355.3381574457877</v>
+        <v>394.0070653683729</v>
       </c>
       <c r="AD10" t="n">
-        <v>287104.6348669</v>
+        <v>318348.1769891935</v>
       </c>
       <c r="AE10" t="n">
-        <v>392829.2275874512</v>
+        <v>435578.0202869712</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.873059586045425e-06</v>
+        <v>4.857049780511936e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.052951388888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>355338.1574457877</v>
+        <v>394007.0653683729</v>
       </c>
     </row>
     <row r="11">
@@ -4331,28 +4331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>284.4083884566347</v>
+        <v>315.6519305789282</v>
       </c>
       <c r="AB11" t="n">
-        <v>389.1401042989295</v>
+        <v>431.8888969984497</v>
       </c>
       <c r="AC11" t="n">
-        <v>352.0011189062055</v>
+        <v>390.6700268287909</v>
       </c>
       <c r="AD11" t="n">
-        <v>284408.3884566347</v>
+        <v>315651.9305789282</v>
       </c>
       <c r="AE11" t="n">
-        <v>389140.1042989296</v>
+        <v>431888.8969984497</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.885757366615494e-06</v>
+        <v>4.878516008581272e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.020399305555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>352001.1189062055</v>
+        <v>390670.0268287908</v>
       </c>
     </row>
     <row r="12">
@@ -4437,28 +4437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>285.4119850604804</v>
+        <v>316.6555271827739</v>
       </c>
       <c r="AB12" t="n">
-        <v>390.5132694478686</v>
+        <v>433.2620621473887</v>
       </c>
       <c r="AC12" t="n">
-        <v>353.2432311005792</v>
+        <v>391.9121390231645</v>
       </c>
       <c r="AD12" t="n">
-        <v>285411.9850604804</v>
+        <v>316655.5271827739</v>
       </c>
       <c r="AE12" t="n">
-        <v>390513.2694478686</v>
+        <v>433262.0621473887</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.885757366615494e-06</v>
+        <v>4.878516008581272e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.020399305555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>353243.2311005792</v>
+        <v>391912.1390231645</v>
       </c>
     </row>
   </sheetData>
@@ -4734,28 +4734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>687.7191804956727</v>
+        <v>748.1773362128132</v>
       </c>
       <c r="AB2" t="n">
-        <v>940.967722783132</v>
+        <v>1023.68923866091</v>
       </c>
       <c r="AC2" t="n">
-        <v>851.1630839772025</v>
+        <v>925.9897744799822</v>
       </c>
       <c r="AD2" t="n">
-        <v>687719.1804956727</v>
+        <v>748177.3362128132</v>
       </c>
       <c r="AE2" t="n">
-        <v>940967.722783132</v>
+        <v>1023689.23866091</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.688127582339927e-06</v>
+        <v>2.923484166580463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.41753472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>851163.0839772025</v>
+        <v>925989.7744799822</v>
       </c>
     </row>
     <row r="3">
@@ -4840,28 +4840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.6618125635758</v>
+        <v>440.0293109283048</v>
       </c>
       <c r="AB3" t="n">
-        <v>533.1524826153994</v>
+        <v>602.0675159352245</v>
       </c>
       <c r="AC3" t="n">
-        <v>482.2691579587939</v>
+        <v>544.6070372214316</v>
       </c>
       <c r="AD3" t="n">
-        <v>389661.8125635758</v>
+        <v>440029.3109283048</v>
       </c>
       <c r="AE3" t="n">
-        <v>533152.4826153994</v>
+        <v>602067.5159352245</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.399578993915388e-06</v>
+        <v>4.155569323407999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.734809027777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>482269.1579587939</v>
+        <v>544607.0372214316</v>
       </c>
     </row>
     <row r="4">
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>324.5606425383189</v>
+        <v>364.9229139137595</v>
       </c>
       <c r="AB4" t="n">
-        <v>444.0781897259214</v>
+        <v>499.3036300795397</v>
       </c>
       <c r="AC4" t="n">
-        <v>401.6959905661325</v>
+        <v>451.6507924017938</v>
       </c>
       <c r="AD4" t="n">
-        <v>324560.6425383189</v>
+        <v>364922.9139137595</v>
       </c>
       <c r="AE4" t="n">
-        <v>444078.1897259214</v>
+        <v>499303.6300795397</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.671951106411016e-06</v>
+        <v>4.627260898517103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.845052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>401695.9905661325</v>
+        <v>451650.7924017938</v>
       </c>
     </row>
     <row r="5">
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>299.6045562642525</v>
+        <v>339.7962354391009</v>
       </c>
       <c r="AB5" t="n">
-        <v>409.932171500921</v>
+        <v>464.9242000796922</v>
       </c>
       <c r="AC5" t="n">
-        <v>370.8088203962885</v>
+        <v>420.5524869492988</v>
       </c>
       <c r="AD5" t="n">
-        <v>299604.5562642525</v>
+        <v>339796.2354391009</v>
       </c>
       <c r="AE5" t="n">
-        <v>409932.171500921</v>
+        <v>464924.2000796922</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.804466900150024e-06</v>
+        <v>4.8567505584638e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.473958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>370808.8203962885</v>
+        <v>420552.4869492988</v>
       </c>
     </row>
     <row r="6">
@@ -5158,28 +5158,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>281.960434022352</v>
+        <v>312.2322270624835</v>
       </c>
       <c r="AB6" t="n">
-        <v>385.7907050458163</v>
+        <v>427.2099077805785</v>
       </c>
       <c r="AC6" t="n">
-        <v>348.9713816168981</v>
+        <v>386.4375937748706</v>
       </c>
       <c r="AD6" t="n">
-        <v>281960.434022352</v>
+        <v>312232.2270624835</v>
       </c>
       <c r="AE6" t="n">
-        <v>385790.7050458163</v>
+        <v>427209.9077805785</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.894581503326769e-06</v>
+        <v>5.012810217888196e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.241753472222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>348971.3816168981</v>
+        <v>386437.5937748706</v>
       </c>
     </row>
     <row r="7">
@@ -5264,28 +5264,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>267.2938906692396</v>
+        <v>297.5656837093711</v>
       </c>
       <c r="AB7" t="n">
-        <v>365.7232933878612</v>
+        <v>407.1424961226234</v>
       </c>
       <c r="AC7" t="n">
-        <v>330.819175562789</v>
+        <v>368.2853877207615</v>
       </c>
       <c r="AD7" t="n">
-        <v>267293.8906692396</v>
+        <v>297565.6837093711</v>
       </c>
       <c r="AE7" t="n">
-        <v>365723.2933878612</v>
+        <v>407142.4961226233</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.956203279132518e-06</v>
+        <v>5.119526255093731e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.08984375</v>
       </c>
       <c r="AH7" t="n">
-        <v>330819.175562789</v>
+        <v>368285.3877207615</v>
       </c>
     </row>
     <row r="8">
@@ -5370,28 +5370,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>262.4522192283834</v>
+        <v>292.7240122685149</v>
       </c>
       <c r="AB8" t="n">
-        <v>359.0987049230129</v>
+        <v>400.517907657775</v>
       </c>
       <c r="AC8" t="n">
-        <v>324.8268285233575</v>
+        <v>362.29304068133</v>
       </c>
       <c r="AD8" t="n">
-        <v>262452.2192283834</v>
+        <v>292724.0122685149</v>
       </c>
       <c r="AE8" t="n">
-        <v>359098.7049230129</v>
+        <v>400517.907657775</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.971077500878733e-06</v>
+        <v>5.145285298557135e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.055121527777777</v>
       </c>
       <c r="AH8" t="n">
-        <v>324826.8285233575</v>
+        <v>362293.04068133</v>
       </c>
     </row>
     <row r="9">
@@ -5476,28 +5476,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>262.9973057279933</v>
+        <v>293.2690987681247</v>
       </c>
       <c r="AB9" t="n">
-        <v>359.8445163192982</v>
+        <v>401.2637190540603</v>
       </c>
       <c r="AC9" t="n">
-        <v>325.5014607267342</v>
+        <v>362.9676728847068</v>
       </c>
       <c r="AD9" t="n">
-        <v>262997.3057279933</v>
+        <v>293269.0987681247</v>
       </c>
       <c r="AE9" t="n">
-        <v>359844.5163192982</v>
+        <v>401263.7190540603</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.977355581485901e-06</v>
+        <v>5.156157622096884e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.039930555555554</v>
       </c>
       <c r="AH9" t="n">
-        <v>325501.4607267342</v>
+        <v>362967.6728847068</v>
       </c>
     </row>
   </sheetData>
@@ -5773,28 +5773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.2361557230249</v>
+        <v>329.7276429320302</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.9044478744326</v>
+        <v>451.1479076165663</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.7879532001167</v>
+        <v>408.0909845037055</v>
       </c>
       <c r="AD2" t="n">
-        <v>284236.1557230249</v>
+        <v>329727.6429320301</v>
       </c>
       <c r="AE2" t="n">
-        <v>388904.4478744326</v>
+        <v>451147.9076165663</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.694178056797915e-06</v>
+        <v>5.097964642882104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.680555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>351787.9532001167</v>
+        <v>408090.9845037055</v>
       </c>
     </row>
     <row r="3">
@@ -5879,28 +5879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.3746281772777</v>
+        <v>246.6654984275465</v>
       </c>
       <c r="AB3" t="n">
-        <v>287.8438473455881</v>
+        <v>337.4986170621806</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.372434546387</v>
+        <v>305.2882227321508</v>
       </c>
       <c r="AD3" t="n">
-        <v>210374.6281772777</v>
+        <v>246665.4984275465</v>
       </c>
       <c r="AE3" t="n">
-        <v>287843.8473455881</v>
+        <v>337498.6170621807</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.182617730108106e-06</v>
+        <v>6.022197611981299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.348090277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>260372.434546387</v>
+        <v>305288.2227321508</v>
       </c>
     </row>
     <row r="4">
@@ -5985,28 +5985,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.4445075253223</v>
+        <v>245.735377775591</v>
       </c>
       <c r="AB4" t="n">
-        <v>286.5712152355561</v>
+        <v>336.2259849521486</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.2212606587856</v>
+        <v>304.1370488445494</v>
       </c>
       <c r="AD4" t="n">
-        <v>209444.5075253223</v>
+        <v>245735.377775591</v>
       </c>
       <c r="AE4" t="n">
-        <v>286571.2152355561</v>
+        <v>336225.9849521486</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.198568540269162e-06</v>
+        <v>6.052379977256384e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.313368055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>259221.2606587856</v>
+        <v>304137.0488445494</v>
       </c>
     </row>
   </sheetData>
@@ -6282,28 +6282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>394.2338096974711</v>
+        <v>441.7169635923334</v>
       </c>
       <c r="AB2" t="n">
-        <v>539.4080907962731</v>
+        <v>604.3766367641291</v>
       </c>
       <c r="AC2" t="n">
-        <v>487.9277396746862</v>
+        <v>546.6957787992973</v>
       </c>
       <c r="AD2" t="n">
-        <v>394233.8096974712</v>
+        <v>441716.9635923334</v>
       </c>
       <c r="AE2" t="n">
-        <v>539408.0907962731</v>
+        <v>604376.6367641292</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.286264342086594e-06</v>
+        <v>4.16507711232609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.787326388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>487927.7396746862</v>
+        <v>546695.7787992973</v>
       </c>
     </row>
     <row r="3">
@@ -6388,28 +6388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.6552660391034</v>
+        <v>303.6417891549933</v>
       </c>
       <c r="AB3" t="n">
-        <v>363.4812548778922</v>
+        <v>415.4560916521772</v>
       </c>
       <c r="AC3" t="n">
-        <v>328.7911140614907</v>
+        <v>375.8055453611794</v>
       </c>
       <c r="AD3" t="n">
-        <v>265655.2660391034</v>
+        <v>303641.7891549933</v>
       </c>
       <c r="AE3" t="n">
-        <v>363481.2548778923</v>
+        <v>415456.0916521772</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.882627332734598e-06</v>
+        <v>5.251520966285417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.762586805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>328791.1140614907</v>
+        <v>375805.5453611795</v>
       </c>
     </row>
     <row r="4">
@@ -6494,28 +6494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.8280951110478</v>
+        <v>261.3180769565192</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.5656713814067</v>
+        <v>357.5469214318224</v>
       </c>
       <c r="AC4" t="n">
-        <v>288.1622108145876</v>
+        <v>323.4231450706244</v>
       </c>
       <c r="AD4" t="n">
-        <v>232828.0951110478</v>
+        <v>261318.0769565192</v>
       </c>
       <c r="AE4" t="n">
-        <v>318565.6713814067</v>
+        <v>357546.9214318224</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.097808792188676e-06</v>
+        <v>5.643534853424614e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>288162.2108145876</v>
+        <v>323423.1450706244</v>
       </c>
     </row>
     <row r="5">
@@ -6600,28 +6600,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.5979979680503</v>
+        <v>256.0879798135184</v>
       </c>
       <c r="AB5" t="n">
-        <v>311.4096217347595</v>
+        <v>350.3908717850016</v>
       </c>
       <c r="AC5" t="n">
-        <v>281.6891245026354</v>
+        <v>316.9500587586228</v>
       </c>
       <c r="AD5" t="n">
-        <v>227597.9979680503</v>
+        <v>256087.9798135184</v>
       </c>
       <c r="AE5" t="n">
-        <v>311409.6217347595</v>
+        <v>350390.8717850016</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.131730545978993e-06</v>
+        <v>5.705332921881152e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.144097222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>281689.1245026354</v>
+        <v>316950.0587586229</v>
       </c>
     </row>
   </sheetData>
@@ -6897,28 +6897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.0913732727008</v>
+        <v>255.9339413988936</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.1927737225931</v>
+        <v>350.1801096304168</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.4971826867102</v>
+        <v>316.7594114482651</v>
       </c>
       <c r="AD2" t="n">
-        <v>212091.3732727008</v>
+        <v>255933.9413988935</v>
       </c>
       <c r="AE2" t="n">
-        <v>290192.7737225931</v>
+        <v>350180.1096304168</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.04696028672863e-06</v>
+        <v>5.971060429958761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.973090277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>262497.1826867102</v>
+        <v>316759.4114482651</v>
       </c>
     </row>
     <row r="3">
@@ -7003,28 +7003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.8025666157914</v>
+        <v>230.0131664840602</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.5374657263025</v>
+        <v>314.7141618480777</v>
       </c>
       <c r="AC3" t="n">
-        <v>241.0995040851448</v>
+        <v>284.6782839454908</v>
       </c>
       <c r="AD3" t="n">
-        <v>194802.5666157914</v>
+        <v>230013.1664840602</v>
       </c>
       <c r="AE3" t="n">
-        <v>266537.4657263025</v>
+        <v>314714.1618480777</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.219115054040215e-06</v>
+        <v>6.308428305542927e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.545572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>241099.5040851448</v>
+        <v>284678.2839454908</v>
       </c>
     </row>
   </sheetData>
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>745.555452270165</v>
+        <v>816.7000568457059</v>
       </c>
       <c r="AB2" t="n">
-        <v>1020.101861381223</v>
+        <v>1117.445048039915</v>
       </c>
       <c r="AC2" t="n">
-        <v>922.7447714529528</v>
+        <v>1010.79766099896</v>
       </c>
       <c r="AD2" t="n">
-        <v>745555.452270165</v>
+        <v>816700.056845706</v>
       </c>
       <c r="AE2" t="n">
-        <v>1020101.861381223</v>
+        <v>1117445.048039915</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.604716154198816e-06</v>
+        <v>2.760883986332639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.94487847222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>922744.7714529529</v>
+        <v>1010797.66099896</v>
       </c>
     </row>
     <row r="3">
@@ -7406,28 +7406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.9229796381777</v>
+        <v>458.7161712336864</v>
       </c>
       <c r="AB3" t="n">
-        <v>558.1382170327028</v>
+        <v>627.6357026111407</v>
       </c>
       <c r="AC3" t="n">
-        <v>504.8702889510083</v>
+        <v>567.7350320461738</v>
       </c>
       <c r="AD3" t="n">
-        <v>407922.9796381777</v>
+        <v>458716.1712336864</v>
       </c>
       <c r="AE3" t="n">
-        <v>558138.2170327028</v>
+        <v>627635.7026111407</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.33906642768604e-06</v>
+        <v>4.024319831435174e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.880208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>504870.2889510083</v>
+        <v>567735.0320461738</v>
       </c>
     </row>
     <row r="4">
@@ -7512,28 +7512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>339.6852748855483</v>
+        <v>390.3931256264855</v>
       </c>
       <c r="AB4" t="n">
-        <v>464.7723789550874</v>
+        <v>534.1530974113277</v>
       </c>
       <c r="AC4" t="n">
-        <v>420.4151554197438</v>
+        <v>483.1742754829705</v>
       </c>
       <c r="AD4" t="n">
-        <v>339685.2748855483</v>
+        <v>390393.1256264854</v>
       </c>
       <c r="AE4" t="n">
-        <v>464772.3789550874</v>
+        <v>534153.0974113278</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.611097642134775e-06</v>
+        <v>4.49234442369031e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.955729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>420415.1554197439</v>
+        <v>483174.2754829705</v>
       </c>
     </row>
     <row r="5">
@@ -7618,28 +7618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>312.8962127350316</v>
+        <v>353.599038695096</v>
       </c>
       <c r="AB5" t="n">
-        <v>428.1184022707393</v>
+        <v>483.8098044312478</v>
       </c>
       <c r="AC5" t="n">
-        <v>387.2593828259706</v>
+        <v>437.6356757276541</v>
       </c>
       <c r="AD5" t="n">
-        <v>312896.2127350316</v>
+        <v>353599.038695096</v>
       </c>
       <c r="AE5" t="n">
-        <v>428118.4022707393</v>
+        <v>483809.8044312478</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.751420569784966e-06</v>
+        <v>4.733767383664282e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.549913194444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>387259.3828259706</v>
+        <v>437635.6757276541</v>
       </c>
     </row>
     <row r="6">
@@ -7724,28 +7724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>295.4318708146006</v>
+        <v>335.9641045740727</v>
       </c>
       <c r="AB6" t="n">
-        <v>404.2229191828172</v>
+        <v>459.6809095684787</v>
       </c>
       <c r="AC6" t="n">
-        <v>365.6444511064386</v>
+        <v>415.809608725471</v>
       </c>
       <c r="AD6" t="n">
-        <v>295431.8708146006</v>
+        <v>335964.1045740728</v>
       </c>
       <c r="AE6" t="n">
-        <v>404222.9191828172</v>
+        <v>459680.9095684788</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.837566978301455e-06</v>
+        <v>4.881980660592369e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.319878472222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>365644.4511064386</v>
+        <v>415809.608725471</v>
       </c>
     </row>
     <row r="7">
@@ -7830,28 +7830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>279.7731471884397</v>
+        <v>310.300356167039</v>
       </c>
       <c r="AB7" t="n">
-        <v>382.7979627033727</v>
+        <v>424.5666367933025</v>
       </c>
       <c r="AC7" t="n">
-        <v>346.264262403277</v>
+        <v>384.0465928607661</v>
       </c>
       <c r="AD7" t="n">
-        <v>279773.1471884397</v>
+        <v>310300.356167039</v>
       </c>
       <c r="AE7" t="n">
-        <v>382797.9627033727</v>
+        <v>424566.6367933025</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.907441287431496e-06</v>
+        <v>5.002198096322929e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.144097222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>346264.262403277</v>
+        <v>384046.5928607661</v>
       </c>
     </row>
     <row r="8">
@@ -7936,28 +7936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>270.3351082908112</v>
+        <v>300.8623172694105</v>
       </c>
       <c r="AB8" t="n">
-        <v>369.8844215067477</v>
+        <v>411.6530955966775</v>
       </c>
       <c r="AC8" t="n">
-        <v>334.583171454189</v>
+        <v>372.3655019116781</v>
       </c>
       <c r="AD8" t="n">
-        <v>270335.1082908112</v>
+        <v>300862.3172694105</v>
       </c>
       <c r="AE8" t="n">
-        <v>369884.4215067477</v>
+        <v>411653.0955966775</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.944388524861901e-06</v>
+        <v>5.065765123983197e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.055121527777777</v>
       </c>
       <c r="AH8" t="n">
-        <v>334583.171454189</v>
+        <v>372365.5019116781</v>
       </c>
     </row>
     <row r="9">
@@ -8042,28 +8042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>268.5600284703005</v>
+        <v>299.0872374488998</v>
       </c>
       <c r="AB9" t="n">
-        <v>367.4556789853302</v>
+        <v>409.22435307526</v>
       </c>
       <c r="AC9" t="n">
-        <v>332.386224710254</v>
+        <v>370.1685551677432</v>
       </c>
       <c r="AD9" t="n">
-        <v>268560.0284703005</v>
+        <v>299087.2374488998</v>
       </c>
       <c r="AE9" t="n">
-        <v>367455.6789853302</v>
+        <v>409224.3530752599</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.949174436446151e-06</v>
+        <v>5.073999194923646e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.044270833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>332386.224710254</v>
+        <v>370168.5551677432</v>
       </c>
     </row>
     <row r="10">
@@ -8148,28 +8148,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>269.5061422372097</v>
+        <v>300.033351215809</v>
       </c>
       <c r="AB10" t="n">
-        <v>368.7501935808089</v>
+        <v>410.5188676707387</v>
       </c>
       <c r="AC10" t="n">
-        <v>333.5571926496029</v>
+        <v>371.3395231070921</v>
       </c>
       <c r="AD10" t="n">
-        <v>269506.1422372097</v>
+        <v>300033.3512158091</v>
       </c>
       <c r="AE10" t="n">
-        <v>368750.1935808089</v>
+        <v>410518.8676707387</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.949365872909521e-06</v>
+        <v>5.074328557761264e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.042100694444446</v>
       </c>
       <c r="AH10" t="n">
-        <v>333557.1926496029</v>
+        <v>371339.5231070921</v>
       </c>
     </row>
   </sheetData>
@@ -8445,28 +8445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.4283312881218</v>
+        <v>221.8982332198065</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.4477116226878</v>
+        <v>303.6109521503425</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.9727019521171</v>
+        <v>274.6347489978511</v>
       </c>
       <c r="AD2" t="n">
-        <v>187428.3312881218</v>
+        <v>221898.2332198065</v>
       </c>
       <c r="AE2" t="n">
-        <v>256447.7116226879</v>
+        <v>303610.9521503425</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.187392772252319e-06</v>
+        <v>6.389639995214994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.799479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>231972.7019521171</v>
+        <v>274634.7489978512</v>
       </c>
     </row>
     <row r="3">
@@ -8551,28 +8551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.6705003006546</v>
+        <v>222.1404022323392</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.7790579493778</v>
+        <v>303.9422984770324</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.2724250504353</v>
+        <v>274.9344720961694</v>
       </c>
       <c r="AD3" t="n">
-        <v>187670.5003006546</v>
+        <v>222140.4022323392</v>
       </c>
       <c r="AE3" t="n">
-        <v>256779.0579493778</v>
+        <v>303942.2984770323</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.202169903164109e-06</v>
+        <v>6.419263124033779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.762586805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>232272.4250504354</v>
+        <v>274934.4720961694</v>
       </c>
     </row>
   </sheetData>
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>520.8454988310558</v>
+        <v>579.6456684423739</v>
       </c>
       <c r="AB2" t="n">
-        <v>712.6437895823482</v>
+        <v>793.0967757249557</v>
       </c>
       <c r="AC2" t="n">
-        <v>644.6300665064487</v>
+        <v>717.4047325680812</v>
       </c>
       <c r="AD2" t="n">
-        <v>520845.4988310558</v>
+        <v>579645.6684423739</v>
       </c>
       <c r="AE2" t="n">
-        <v>712643.7895823482</v>
+        <v>793096.7757249557</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.963697141498763e-06</v>
+        <v>3.47785355384118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.99826388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>644630.0665064487</v>
+        <v>717404.7325680811</v>
       </c>
     </row>
     <row r="3">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>330.9251636067472</v>
+        <v>370.0969192379864</v>
       </c>
       <c r="AB3" t="n">
-        <v>452.7864082345979</v>
+        <v>506.382932425152</v>
       </c>
       <c r="AC3" t="n">
-        <v>409.5731089224022</v>
+        <v>458.0544560674043</v>
       </c>
       <c r="AD3" t="n">
-        <v>330925.1636067472</v>
+        <v>370096.9192379864</v>
       </c>
       <c r="AE3" t="n">
-        <v>452786.4082345979</v>
+        <v>506382.932425152</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.625460988403277e-06</v>
+        <v>4.649886500328985e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.224826388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>409573.1089224023</v>
+        <v>458054.4560674042</v>
       </c>
     </row>
     <row r="4">
@@ -9060,28 +9060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>280.7027986543881</v>
+        <v>319.9598056316479</v>
       </c>
       <c r="AB4" t="n">
-        <v>384.0699528524113</v>
+        <v>437.7831216956149</v>
       </c>
       <c r="AC4" t="n">
-        <v>347.4148555977409</v>
+        <v>396.001714993455</v>
       </c>
       <c r="AD4" t="n">
-        <v>280702.7986543881</v>
+        <v>319959.8056316479</v>
       </c>
       <c r="AE4" t="n">
-        <v>384069.9528524114</v>
+        <v>437783.1216956149</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.859416898790121e-06</v>
+        <v>5.064239802162493e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.552083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>347414.8555977409</v>
+        <v>396001.714993455</v>
       </c>
     </row>
     <row r="5">
@@ -9166,28 +9166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>257.2530216807611</v>
+        <v>286.6958664222602</v>
       </c>
       <c r="AB5" t="n">
-        <v>351.984933465782</v>
+        <v>392.2699325679039</v>
       </c>
       <c r="AC5" t="n">
-        <v>318.3919854298697</v>
+        <v>354.8322407579305</v>
       </c>
       <c r="AD5" t="n">
-        <v>257253.0216807611</v>
+        <v>286695.8664222602</v>
       </c>
       <c r="AE5" t="n">
-        <v>351984.933465782</v>
+        <v>392269.9325679039</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.993063341856701e-06</v>
+        <v>5.300937583686271e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.215711805555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>318391.9854298697</v>
+        <v>354832.2407579306</v>
       </c>
     </row>
     <row r="6">
@@ -9272,28 +9272,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>245.9228956308931</v>
+        <v>275.3657403723921</v>
       </c>
       <c r="AB6" t="n">
-        <v>336.4825551544768</v>
+        <v>376.7675542565906</v>
       </c>
       <c r="AC6" t="n">
-        <v>304.369132346866</v>
+        <v>340.8093876749244</v>
       </c>
       <c r="AD6" t="n">
-        <v>245922.8956308931</v>
+        <v>275365.7403723921</v>
       </c>
       <c r="AE6" t="n">
-        <v>336482.5551544768</v>
+        <v>376767.5542565907</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.047497150015613e-06</v>
+        <v>5.397343902743237e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.085503472222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>304369.132346866</v>
+        <v>340809.3876749245</v>
       </c>
     </row>
     <row r="7">
@@ -9378,28 +9378,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>246.0237856524715</v>
+        <v>275.4666303939705</v>
       </c>
       <c r="AB7" t="n">
-        <v>336.6205973329539</v>
+        <v>376.9055964350678</v>
       </c>
       <c r="AC7" t="n">
-        <v>304.4939999735727</v>
+        <v>340.9342553016312</v>
       </c>
       <c r="AD7" t="n">
-        <v>246023.7856524715</v>
+        <v>275466.6303939705</v>
       </c>
       <c r="AE7" t="n">
-        <v>336620.5973329539</v>
+        <v>376905.5964350678</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.054562598606625e-06</v>
+        <v>5.409857337209499e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.0703125</v>
       </c>
       <c r="AH7" t="n">
-        <v>304493.9999735727</v>
+        <v>340934.2553016312</v>
       </c>
     </row>
   </sheetData>
@@ -9675,28 +9675,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>625.6180199534923</v>
+        <v>695.4626801011285</v>
       </c>
       <c r="AB2" t="n">
-        <v>855.9981752194765</v>
+        <v>951.5627205624087</v>
       </c>
       <c r="AC2" t="n">
-        <v>774.3029107775134</v>
+        <v>860.746910038598</v>
       </c>
       <c r="AD2" t="n">
-        <v>625618.0199534923</v>
+        <v>695462.6801011285</v>
       </c>
       <c r="AE2" t="n">
-        <v>855998.1752194765</v>
+        <v>951562.7205624087</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.773779437870205e-06</v>
+        <v>3.093316454636416e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.92925347222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>774302.9107775134</v>
+        <v>860746.910038598</v>
       </c>
     </row>
     <row r="3">
@@ -9781,28 +9781,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>368.4362353540074</v>
+        <v>408.5303429838816</v>
       </c>
       <c r="AB3" t="n">
-        <v>504.1107114708896</v>
+        <v>558.9692383572745</v>
       </c>
       <c r="AC3" t="n">
-        <v>455.9990926919344</v>
+        <v>505.6219987667088</v>
       </c>
       <c r="AD3" t="n">
-        <v>368436.2353540073</v>
+        <v>408530.3429838815</v>
       </c>
       <c r="AE3" t="n">
-        <v>504110.7114708896</v>
+        <v>558969.2383572746</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.477558020903799e-06</v>
+        <v>4.320644850061089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.541666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>455999.0926919344</v>
+        <v>505621.9987667088</v>
       </c>
     </row>
     <row r="4">
@@ -9887,28 +9887,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>309.8971337378488</v>
+        <v>349.9059005131515</v>
       </c>
       <c r="AB4" t="n">
-        <v>424.0149300767665</v>
+        <v>478.7566898409537</v>
       </c>
       <c r="AC4" t="n">
-        <v>383.5475402589311</v>
+        <v>433.0648233017667</v>
       </c>
       <c r="AD4" t="n">
-        <v>309897.1337378488</v>
+        <v>349905.9005131515</v>
       </c>
       <c r="AE4" t="n">
-        <v>424014.9300767665</v>
+        <v>478756.6898409537</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.730969012494865e-06</v>
+        <v>4.762571491749746e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.747395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>383547.5402589311</v>
+        <v>433064.8233017667</v>
       </c>
     </row>
     <row r="5">
@@ -9993,28 +9993,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>285.6743374522782</v>
+        <v>325.5125120269885</v>
       </c>
       <c r="AB5" t="n">
-        <v>390.8722315644969</v>
+        <v>445.3805795538372</v>
       </c>
       <c r="AC5" t="n">
-        <v>353.567934376603</v>
+        <v>402.8740821367876</v>
       </c>
       <c r="AD5" t="n">
-        <v>285674.3374522782</v>
+        <v>325512.5120269886</v>
       </c>
       <c r="AE5" t="n">
-        <v>390872.2315644969</v>
+        <v>445380.5795538372</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.867473586649344e-06</v>
+        <v>5.000623549604352e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.378472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>353567.9343766031</v>
+        <v>402874.0821367876</v>
       </c>
     </row>
     <row r="6">
@@ -10099,28 +10099,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>268.3326567933117</v>
+        <v>298.3393213833397</v>
       </c>
       <c r="AB6" t="n">
-        <v>367.1445790259436</v>
+        <v>408.2010213186325</v>
       </c>
       <c r="AC6" t="n">
-        <v>332.1048156943598</v>
+        <v>369.2428887577131</v>
       </c>
       <c r="AD6" t="n">
-        <v>268332.6567933117</v>
+        <v>298339.3213833397</v>
       </c>
       <c r="AE6" t="n">
-        <v>367144.5790259436</v>
+        <v>408201.0213186325</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.951911416090615e-06</v>
+        <v>5.147875751105844e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.16796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>332104.8156943598</v>
+        <v>369242.8887577131</v>
       </c>
     </row>
     <row r="7">
@@ -10205,28 +10205,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>256.6003224591105</v>
+        <v>286.6069870491417</v>
       </c>
       <c r="AB7" t="n">
-        <v>351.0918815956628</v>
+        <v>392.148323888522</v>
       </c>
       <c r="AC7" t="n">
-        <v>317.5841651768282</v>
+        <v>354.7222382402299</v>
       </c>
       <c r="AD7" t="n">
-        <v>256600.3224591105</v>
+        <v>286606.9870491417</v>
       </c>
       <c r="AE7" t="n">
-        <v>351091.8815956628</v>
+        <v>392148.323888522</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.999688017044682e-06</v>
+        <v>5.231193971354955e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.052951388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>317584.1651768282</v>
+        <v>354722.2382402299</v>
       </c>
     </row>
     <row r="8">
@@ -10311,28 +10311,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>256.2094872942917</v>
+        <v>286.2161518843229</v>
       </c>
       <c r="AB8" t="n">
-        <v>350.5571236807274</v>
+        <v>391.6135659735863</v>
       </c>
       <c r="AC8" t="n">
-        <v>317.1004438067566</v>
+        <v>354.2385168701583</v>
       </c>
       <c r="AD8" t="n">
-        <v>256209.4872942917</v>
+        <v>286216.1518843229</v>
       </c>
       <c r="AE8" t="n">
-        <v>350557.1236807274</v>
+        <v>391613.5659735863</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.005635716347128e-06</v>
+        <v>5.241566239590049e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.039930555555554</v>
       </c>
       <c r="AH8" t="n">
-        <v>317100.4438067566</v>
+        <v>354238.5168701583</v>
       </c>
     </row>
   </sheetData>
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>899.1743165295511</v>
+        <v>971.4510424504759</v>
       </c>
       <c r="AB2" t="n">
-        <v>1230.289968646896</v>
+        <v>1329.182173676011</v>
       </c>
       <c r="AC2" t="n">
-        <v>1112.872820762052</v>
+        <v>1202.326892539269</v>
       </c>
       <c r="AD2" t="n">
-        <v>899174.3165295511</v>
+        <v>971451.042450476</v>
       </c>
       <c r="AE2" t="n">
-        <v>1230289.968646896</v>
+        <v>1329182.173676011</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.448295800932687e-06</v>
+        <v>2.462006873784503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.1015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1112872.820762052</v>
+        <v>1202326.89253927</v>
       </c>
     </row>
     <row r="3">
@@ -10714,28 +10714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>460.2922625076462</v>
+        <v>501.6420533115946</v>
       </c>
       <c r="AB3" t="n">
-        <v>629.792180224412</v>
+        <v>686.3687882263972</v>
       </c>
       <c r="AC3" t="n">
-        <v>569.6856984626697</v>
+        <v>620.8627144027137</v>
       </c>
       <c r="AD3" t="n">
-        <v>460292.2625076462</v>
+        <v>501642.0533115946</v>
       </c>
       <c r="AE3" t="n">
-        <v>629792.180224412</v>
+        <v>686368.7882263972</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.210888618851822e-06</v>
+        <v>3.758364122356589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.23828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>569685.6984626697</v>
+        <v>620862.7144027137</v>
       </c>
     </row>
     <row r="4">
@@ -10820,28 +10820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>380.7394216024894</v>
+        <v>422.0038715518663</v>
       </c>
       <c r="AB4" t="n">
-        <v>520.9444736743327</v>
+        <v>577.4043145541203</v>
       </c>
       <c r="AC4" t="n">
-        <v>471.2262642570145</v>
+        <v>522.2976571651195</v>
       </c>
       <c r="AD4" t="n">
-        <v>380739.4216024894</v>
+        <v>422003.8715518663</v>
       </c>
       <c r="AE4" t="n">
-        <v>520944.4736743327</v>
+        <v>577404.3145541203</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.49576686886308e-06</v>
+        <v>4.242638266676928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.18359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>471226.2642570145</v>
+        <v>522297.6571651195</v>
       </c>
     </row>
     <row r="5">
@@ -10926,28 +10926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>339.1119649160882</v>
+        <v>380.4616662114856</v>
       </c>
       <c r="AB5" t="n">
-        <v>463.9879509622214</v>
+        <v>520.5644364946583</v>
       </c>
       <c r="AC5" t="n">
-        <v>419.7055921335653</v>
+        <v>470.8824972923827</v>
       </c>
       <c r="AD5" t="n">
-        <v>339111.9649160882</v>
+        <v>380461.6662114856</v>
       </c>
       <c r="AE5" t="n">
-        <v>463987.9509622214</v>
+        <v>520564.4364946582</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.647193728548615e-06</v>
+        <v>4.50005389211843e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.71484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>419705.5921335653</v>
+        <v>470882.4972923827</v>
       </c>
     </row>
     <row r="6">
@@ -11032,28 +11032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>318.6241821329926</v>
+        <v>359.8032912277978</v>
       </c>
       <c r="AB6" t="n">
-        <v>435.9556627012046</v>
+        <v>492.2987364587946</v>
       </c>
       <c r="AC6" t="n">
-        <v>394.3486661206164</v>
+        <v>445.3144359967826</v>
       </c>
       <c r="AD6" t="n">
-        <v>318624.1821329927</v>
+        <v>359803.2912277979</v>
       </c>
       <c r="AE6" t="n">
-        <v>435955.6627012047</v>
+        <v>492298.7364587946</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.747799889520545e-06</v>
+        <v>4.671077697958681e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.432725694444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>394348.6661206164</v>
+        <v>445314.4359967826</v>
       </c>
     </row>
     <row r="7">
@@ -11138,28 +11138,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>305.4060509456052</v>
+        <v>346.5851600404105</v>
       </c>
       <c r="AB7" t="n">
-        <v>417.8700324678294</v>
+        <v>474.2131062254193</v>
       </c>
       <c r="AC7" t="n">
-        <v>377.9891030533731</v>
+        <v>428.9548729295393</v>
       </c>
       <c r="AD7" t="n">
-        <v>305406.0509456052</v>
+        <v>346585.1600404105</v>
       </c>
       <c r="AE7" t="n">
-        <v>417870.0324678294</v>
+        <v>474213.1062254193</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.808502390761794e-06</v>
+        <v>4.77426792692684e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.272135416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>377989.1030533731</v>
+        <v>428954.8729295393</v>
       </c>
     </row>
     <row r="8">
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>292.8172520654219</v>
+        <v>323.829617545521</v>
       </c>
       <c r="AB8" t="n">
-        <v>400.6454824613527</v>
+        <v>443.0779690802288</v>
       </c>
       <c r="AC8" t="n">
-        <v>362.4084399247067</v>
+        <v>400.7912295750461</v>
       </c>
       <c r="AD8" t="n">
-        <v>292817.2520654219</v>
+        <v>323829.617545521</v>
       </c>
       <c r="AE8" t="n">
-        <v>400645.4824613527</v>
+        <v>443077.9690802288</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.859887763905549e-06</v>
+        <v>4.861619655634771e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.141927083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>362408.4399247067</v>
+        <v>400791.2295750462</v>
       </c>
     </row>
     <row r="9">
@@ -11350,28 +11350,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>283.5705414094153</v>
+        <v>314.5829068895144</v>
       </c>
       <c r="AB9" t="n">
-        <v>387.993725005721</v>
+        <v>430.4262116245971</v>
       </c>
       <c r="AC9" t="n">
-        <v>350.9641484437874</v>
+        <v>389.3469380941269</v>
       </c>
       <c r="AD9" t="n">
-        <v>283570.5414094153</v>
+        <v>314582.9068895145</v>
       </c>
       <c r="AE9" t="n">
-        <v>387993.725005721</v>
+        <v>430426.2116245971</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.889909621108586e-06</v>
+        <v>4.912654823139953e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.068142361111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>350964.1484437874</v>
+        <v>389346.9380941269</v>
       </c>
     </row>
     <row r="10">
@@ -11456,28 +11456,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>279.8593916015542</v>
+        <v>310.8717570816533</v>
       </c>
       <c r="AB10" t="n">
-        <v>382.915966114231</v>
+        <v>425.348452733107</v>
       </c>
       <c r="AC10" t="n">
-        <v>346.3710037342218</v>
+        <v>384.7537933845613</v>
       </c>
       <c r="AD10" t="n">
-        <v>279859.3916015542</v>
+        <v>310871.7570816533</v>
       </c>
       <c r="AE10" t="n">
-        <v>382915.966114231</v>
+        <v>425348.452733107</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.902803020597037e-06</v>
+        <v>4.934572747742493e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.035590277777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>346371.0037342218</v>
+        <v>384753.7933845613</v>
       </c>
     </row>
     <row r="11">
@@ -11562,28 +11562,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>280.9150174245569</v>
+        <v>311.9273829046561</v>
       </c>
       <c r="AB11" t="n">
-        <v>384.3603199361879</v>
+        <v>426.7928065550639</v>
       </c>
       <c r="AC11" t="n">
-        <v>347.6775104545744</v>
+        <v>386.0603001049139</v>
       </c>
       <c r="AD11" t="n">
-        <v>280915.017424557</v>
+        <v>311927.3829046561</v>
       </c>
       <c r="AE11" t="n">
-        <v>384360.3199361879</v>
+        <v>426792.8065550639</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.902520683381961e-06</v>
+        <v>4.934092793189151e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.035590277777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>347677.5104545744</v>
+        <v>386060.3001049139</v>
       </c>
     </row>
   </sheetData>
@@ -11859,28 +11859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.7750515739096</v>
+        <v>488.7305320336591</v>
       </c>
       <c r="AB2" t="n">
-        <v>603.0878711862964</v>
+        <v>668.7026751978085</v>
       </c>
       <c r="AC2" t="n">
-        <v>545.5300111994188</v>
+        <v>604.8826304070282</v>
       </c>
       <c r="AD2" t="n">
-        <v>440775.0515739096</v>
+        <v>488730.5320336591</v>
       </c>
       <c r="AE2" t="n">
-        <v>603087.8711862965</v>
+        <v>668702.6751978085</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.170598805994577e-06</v>
+        <v>3.914103297584792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.18012152777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>545530.0111994188</v>
+        <v>604882.6304070281</v>
       </c>
     </row>
     <row r="3">
@@ -11965,28 +11965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.4010044017625</v>
+        <v>322.8335898463784</v>
       </c>
       <c r="AB3" t="n">
-        <v>389.1300011092918</v>
+        <v>441.715160040621</v>
       </c>
       <c r="AC3" t="n">
-        <v>351.9919799508069</v>
+        <v>399.5584851174642</v>
       </c>
       <c r="AD3" t="n">
-        <v>284401.0044017624</v>
+        <v>322833.5898463784</v>
       </c>
       <c r="AE3" t="n">
-        <v>389130.0011092918</v>
+        <v>441715.160040621</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.790653533163157e-06</v>
+        <v>5.032208700384707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>351991.9799508069</v>
+        <v>399558.4851174642</v>
       </c>
     </row>
     <row r="4">
@@ -12071,28 +12071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>249.4512050194103</v>
+        <v>287.7131982634372</v>
       </c>
       <c r="AB4" t="n">
-        <v>341.310143717868</v>
+        <v>393.6618908745155</v>
       </c>
       <c r="AC4" t="n">
-        <v>308.7359826333318</v>
+        <v>356.0913525173849</v>
       </c>
       <c r="AD4" t="n">
-        <v>249451.2050194103</v>
+        <v>287713.1982634372</v>
       </c>
       <c r="AE4" t="n">
-        <v>341310.143717868</v>
+        <v>393661.8908745155</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.011999834782943e-06</v>
+        <v>5.431348461581261e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.335069444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>308735.9826333318</v>
+        <v>356091.3525173849</v>
       </c>
     </row>
     <row r="5">
@@ -12177,28 +12177,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>233.9400067270542</v>
+        <v>262.76453531907</v>
       </c>
       <c r="AB5" t="n">
-        <v>320.0870379085042</v>
+        <v>359.5260295767038</v>
       </c>
       <c r="AC5" t="n">
-        <v>289.5383802555907</v>
+        <v>325.2133699118541</v>
       </c>
       <c r="AD5" t="n">
-        <v>233940.0067270542</v>
+        <v>262764.53531907</v>
       </c>
       <c r="AE5" t="n">
-        <v>320087.0379085041</v>
+        <v>359526.0295767038</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.100171820616768e-06</v>
+        <v>5.590343417053302e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.126736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>289538.3802555907</v>
+        <v>325213.3699118541</v>
       </c>
     </row>
     <row r="6">
@@ -12283,28 +12283,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>234.3956511557069</v>
+        <v>263.2201797477228</v>
       </c>
       <c r="AB6" t="n">
-        <v>320.7104707174</v>
+        <v>360.1494623856</v>
       </c>
       <c r="AC6" t="n">
-        <v>290.1023135121992</v>
+        <v>325.7773031684627</v>
       </c>
       <c r="AD6" t="n">
-        <v>234395.6511557069</v>
+        <v>263220.1797477228</v>
       </c>
       <c r="AE6" t="n">
-        <v>320710.4707174</v>
+        <v>360149.4623856</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.105364397149706e-06</v>
+        <v>5.599706861313202e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.115885416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>290102.3135121992</v>
+        <v>325777.3031684626</v>
       </c>
     </row>
   </sheetData>
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.7305760575667</v>
+        <v>362.7375475640227</v>
       </c>
       <c r="AB2" t="n">
-        <v>445.6789443807803</v>
+        <v>496.3135154282709</v>
       </c>
       <c r="AC2" t="n">
-        <v>403.1439714434049</v>
+        <v>448.9460500961898</v>
       </c>
       <c r="AD2" t="n">
-        <v>325730.5760575667</v>
+        <v>362737.5475640228</v>
       </c>
       <c r="AE2" t="n">
-        <v>445678.9443807803</v>
+        <v>496313.5154282709</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.545703337442378e-06</v>
+        <v>4.749468712082842e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.040798611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>403143.9714434049</v>
+        <v>448946.0500961898</v>
       </c>
     </row>
     <row r="3">
@@ -12686,28 +12686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.9599310024003</v>
+        <v>263.7962207997159</v>
       </c>
       <c r="AB3" t="n">
-        <v>310.5365903628298</v>
+        <v>360.9376271660746</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.8994140195353</v>
+        <v>326.490246608485</v>
       </c>
       <c r="AD3" t="n">
-        <v>226959.9310024003</v>
+        <v>263796.2207997159</v>
       </c>
       <c r="AE3" t="n">
-        <v>310536.5903628299</v>
+        <v>360937.6271660746</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.089885474026007e-06</v>
+        <v>5.764738635079844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>280899.4140195353</v>
+        <v>326490.246608485</v>
       </c>
     </row>
     <row r="4">
@@ -12792,28 +12792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.5567898658144</v>
+        <v>243.3120408727938</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.9343095886789</v>
+        <v>332.9102684916644</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.7861930245256</v>
+        <v>301.1377797094154</v>
       </c>
       <c r="AD4" t="n">
-        <v>215556.7898658144</v>
+        <v>243312.0408727938</v>
       </c>
       <c r="AE4" t="n">
-        <v>294934.3095886789</v>
+        <v>332910.2684916644</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.174837703884413e-06</v>
+        <v>5.92323234163229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.250434027777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>266786.1930245257</v>
+        <v>301137.7797094154</v>
       </c>
     </row>
   </sheetData>
@@ -22918,28 +22918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.6263187999144</v>
+        <v>288.4083580398678</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.6544744684854</v>
+        <v>394.6130391489127</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.665696554418</v>
+        <v>356.9517245354186</v>
       </c>
       <c r="AD2" t="n">
-        <v>252626.3187999144</v>
+        <v>288408.3580398678</v>
       </c>
       <c r="AE2" t="n">
-        <v>345654.4744684854</v>
+        <v>394613.0391489126</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.859638675785234e-06</v>
+        <v>5.499191219253981e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.326822916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>312665.6965544181</v>
+        <v>356951.7245354186</v>
       </c>
     </row>
     <row r="3">
@@ -23024,28 +23024,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.2659874633477</v>
+        <v>236.9626858487258</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.3810032759278</v>
+        <v>324.2228008339646</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.0990268230195</v>
+        <v>293.2794317720262</v>
       </c>
       <c r="AD3" t="n">
-        <v>201265.9874633477</v>
+        <v>236962.6858487258</v>
       </c>
       <c r="AE3" t="n">
-        <v>275381.0032759278</v>
+        <v>324222.8008339646</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.215324407106766e-06</v>
+        <v>6.183188070695432e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.404513888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>249099.0268230195</v>
+        <v>293279.4317720262</v>
       </c>
     </row>
   </sheetData>
@@ -23321,28 +23321,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.6275096008795</v>
+        <v>220.150525255269</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.351992060444</v>
+        <v>301.2196610098297</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.9815563270414</v>
+        <v>272.47167932759</v>
       </c>
       <c r="AD2" t="n">
-        <v>186627.5096008795</v>
+        <v>220150.525255269</v>
       </c>
       <c r="AE2" t="n">
-        <v>255351.992060444</v>
+        <v>301219.6610098297</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.134853756376154e-06</v>
+        <v>6.465947230472897e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.151041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>230981.5563270414</v>
+        <v>272471.67932759</v>
       </c>
     </row>
   </sheetData>
@@ -23618,28 +23618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>576.9171929784284</v>
+        <v>636.2079565989603</v>
       </c>
       <c r="AB2" t="n">
-        <v>789.3635552233432</v>
+        <v>870.4877937328378</v>
       </c>
       <c r="AC2" t="n">
-        <v>714.0278053915345</v>
+        <v>787.4096604362667</v>
       </c>
       <c r="AD2" t="n">
-        <v>576917.1929784283</v>
+        <v>636207.9565989603</v>
       </c>
       <c r="AE2" t="n">
-        <v>789363.5552233432</v>
+        <v>870487.7937328378</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.865147378324473e-06</v>
+        <v>3.276990367800621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>714027.8053915345</v>
+        <v>787409.6604362667</v>
       </c>
     </row>
     <row r="3">
@@ -23724,28 +23724,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>349.4810939053756</v>
+        <v>389.0367464401044</v>
       </c>
       <c r="AB3" t="n">
-        <v>478.1754506990497</v>
+        <v>532.2972395692948</v>
       </c>
       <c r="AC3" t="n">
-        <v>432.5390568077918</v>
+        <v>481.4955381086684</v>
       </c>
       <c r="AD3" t="n">
-        <v>349481.0939053756</v>
+        <v>389036.7464401044</v>
       </c>
       <c r="AE3" t="n">
-        <v>478175.4506990497</v>
+        <v>532297.2395692947</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550347772114425e-06</v>
+        <v>4.480860430058104e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.37890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>432539.0568077918</v>
+        <v>481495.5381086684</v>
       </c>
     </row>
     <row r="4">
@@ -23830,28 +23830,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.4162109125674</v>
+        <v>334.0571147933169</v>
       </c>
       <c r="AB4" t="n">
-        <v>402.8332484971029</v>
+        <v>457.0716820199972</v>
       </c>
       <c r="AC4" t="n">
-        <v>364.3874086405538</v>
+        <v>413.4494021921425</v>
       </c>
       <c r="AD4" t="n">
-        <v>294416.2109125674</v>
+        <v>334057.1147933169</v>
       </c>
       <c r="AE4" t="n">
-        <v>402833.2484971029</v>
+        <v>457071.6820199972</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.800084506614471e-06</v>
+        <v>4.919638021015991e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.632378472222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>364387.4086405538</v>
+        <v>413449.4021921426</v>
       </c>
     </row>
     <row r="5">
@@ -23936,28 +23936,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>271.647794531653</v>
+        <v>311.1181062118104</v>
       </c>
       <c r="AB5" t="n">
-        <v>371.6804967330971</v>
+        <v>425.6855184811445</v>
       </c>
       <c r="AC5" t="n">
-        <v>336.2078317817431</v>
+        <v>385.0586900506808</v>
       </c>
       <c r="AD5" t="n">
-        <v>271647.794531653</v>
+        <v>311118.1062118104</v>
       </c>
       <c r="AE5" t="n">
-        <v>371680.4967330971</v>
+        <v>425685.5184811445</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.925445257016111e-06</v>
+        <v>5.139891914268905e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.3046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>336207.8317817431</v>
+        <v>385058.6900506808</v>
       </c>
     </row>
     <row r="6">
@@ -24042,28 +24042,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>255.0249549766264</v>
+        <v>284.7557223957429</v>
       </c>
       <c r="AB6" t="n">
-        <v>348.936394305821</v>
+        <v>389.6153419177093</v>
       </c>
       <c r="AC6" t="n">
-        <v>315.6343945686828</v>
+        <v>352.4310005136491</v>
       </c>
       <c r="AD6" t="n">
-        <v>255024.9549766264</v>
+        <v>284755.7223957428</v>
       </c>
       <c r="AE6" t="n">
-        <v>348936.3943058209</v>
+        <v>389615.3419177093</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.009445822681939e-06</v>
+        <v>5.287477594508289e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.100694444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>315634.3945686828</v>
+        <v>352431.0005136491</v>
       </c>
     </row>
     <row r="7">
@@ -24148,28 +24148,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>251.0777506456409</v>
+        <v>280.8085180647573</v>
       </c>
       <c r="AB7" t="n">
-        <v>343.5356552018042</v>
+        <v>384.2146028136897</v>
       </c>
       <c r="AC7" t="n">
-        <v>310.7490944247667</v>
+        <v>347.5457003697322</v>
       </c>
       <c r="AD7" t="n">
-        <v>251077.7506456409</v>
+        <v>280808.5180647573</v>
       </c>
       <c r="AE7" t="n">
-        <v>343535.6552018042</v>
+        <v>384214.6028136897</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.024611223751736e-06</v>
+        <v>5.314122605946583e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.065972222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>310749.0944247667</v>
+        <v>347545.7003697322</v>
       </c>
     </row>
   </sheetData>
@@ -24445,28 +24445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>819.3350597343418</v>
+        <v>891.1404071412508</v>
       </c>
       <c r="AB2" t="n">
-        <v>1121.05037524027</v>
+        <v>1219.297619390756</v>
       </c>
       <c r="AC2" t="n">
-        <v>1014.058900831421</v>
+        <v>1102.929565891058</v>
       </c>
       <c r="AD2" t="n">
-        <v>819335.0597343418</v>
+        <v>891140.4071412508</v>
       </c>
       <c r="AE2" t="n">
-        <v>1121050.37524027</v>
+        <v>1219297.619390756</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.524681414126502e-06</v>
+        <v>2.607035304007121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.50694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1014058.900831421</v>
+        <v>1102929.565891058</v>
       </c>
     </row>
     <row r="3">
@@ -24551,28 +24551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>439.4512948405634</v>
+        <v>480.4830114387767</v>
       </c>
       <c r="AB3" t="n">
-        <v>601.2766488237066</v>
+        <v>657.4180536649615</v>
       </c>
       <c r="AC3" t="n">
-        <v>543.8916493570482</v>
+        <v>594.6749973152102</v>
       </c>
       <c r="AD3" t="n">
-        <v>439451.2948405634</v>
+        <v>480483.0114387767</v>
       </c>
       <c r="AE3" t="n">
-        <v>601276.6488237067</v>
+        <v>657418.0536649615</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.272455705737682e-06</v>
+        <v>3.885646008903871e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>543891.6493570482</v>
+        <v>594674.9973152103</v>
       </c>
     </row>
     <row r="4">
@@ -24657,28 +24657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>365.9862783205313</v>
+        <v>406.9326540641729</v>
       </c>
       <c r="AB4" t="n">
-        <v>500.7585721732115</v>
+        <v>556.7832098922685</v>
       </c>
       <c r="AC4" t="n">
-        <v>452.9668768640695</v>
+        <v>503.6446017902928</v>
       </c>
       <c r="AD4" t="n">
-        <v>365986.2783205312</v>
+        <v>406932.6540641729</v>
       </c>
       <c r="AE4" t="n">
-        <v>500758.5721732115</v>
+        <v>556783.2098922685</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.548505885216987e-06</v>
+        <v>4.357661052120198e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.081597222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>452966.8768640695</v>
+        <v>503644.6017902928</v>
       </c>
     </row>
     <row r="5">
@@ -24763,28 +24763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>326.197585427432</v>
+        <v>367.2292125170942</v>
       </c>
       <c r="AB5" t="n">
-        <v>446.3179272036293</v>
+        <v>502.4592095753356</v>
       </c>
       <c r="AC5" t="n">
-        <v>403.7219706424592</v>
+        <v>454.5052078193946</v>
       </c>
       <c r="AD5" t="n">
-        <v>326197.585427432</v>
+        <v>367229.2125170942</v>
       </c>
       <c r="AE5" t="n">
-        <v>446317.9272036293</v>
+        <v>502459.2095753357</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.698440324397909e-06</v>
+        <v>4.614032234066501e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.632378472222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>403721.9706424592</v>
+        <v>454505.2078193947</v>
       </c>
     </row>
     <row r="6">
@@ -24869,28 +24869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>307.101535695048</v>
+        <v>347.962570584118</v>
       </c>
       <c r="AB6" t="n">
-        <v>420.1898695015251</v>
+        <v>476.0977400983845</v>
       </c>
       <c r="AC6" t="n">
-        <v>380.0875380964845</v>
+        <v>430.6596399907689</v>
       </c>
       <c r="AD6" t="n">
-        <v>307101.535695048</v>
+        <v>347962.570584118</v>
       </c>
       <c r="AE6" t="n">
-        <v>420189.8695015251</v>
+        <v>476097.7400983844</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.792291691707992e-06</v>
+        <v>4.774507613145547e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.374131944444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>380087.5380964845</v>
+        <v>430659.6399907689</v>
       </c>
     </row>
     <row r="7">
@@ -24975,28 +24975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>293.4411615553794</v>
+        <v>324.2149713811772</v>
       </c>
       <c r="AB7" t="n">
-        <v>401.4991429504566</v>
+        <v>443.6052271987848</v>
       </c>
       <c r="AC7" t="n">
-        <v>363.1806282548505</v>
+        <v>401.2681669187787</v>
       </c>
       <c r="AD7" t="n">
-        <v>293441.1615553795</v>
+        <v>324214.9713811772</v>
       </c>
       <c r="AE7" t="n">
-        <v>401499.1429504566</v>
+        <v>443605.2271987848</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.854353162103133e-06</v>
+        <v>4.880625811242307e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.215711805555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>363180.6282548506</v>
+        <v>401268.1669187787</v>
       </c>
     </row>
     <row r="8">
@@ -25081,28 +25081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>280.8619787388509</v>
+        <v>311.6357885646486</v>
       </c>
       <c r="AB8" t="n">
-        <v>384.2877500665032</v>
+        <v>426.3938343148314</v>
       </c>
       <c r="AC8" t="n">
-        <v>347.6118665514001</v>
+        <v>385.6994052153282</v>
       </c>
       <c r="AD8" t="n">
-        <v>280861.9787388509</v>
+        <v>311635.7885646487</v>
       </c>
       <c r="AE8" t="n">
-        <v>384287.7500665032</v>
+        <v>426393.8343148314</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.903793568946969e-06</v>
+        <v>4.965163397187893e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.092013888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>347611.8665514</v>
+        <v>385699.4052153282</v>
       </c>
     </row>
     <row r="9">
@@ -25187,28 +25187,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>273.5181134410885</v>
+        <v>304.2919232668862</v>
       </c>
       <c r="AB9" t="n">
-        <v>374.2395495776336</v>
+        <v>416.3456338259618</v>
       </c>
       <c r="AC9" t="n">
-        <v>338.5226522144503</v>
+        <v>376.6101908783784</v>
       </c>
       <c r="AD9" t="n">
-        <v>273518.1134410885</v>
+        <v>304291.9232668862</v>
       </c>
       <c r="AE9" t="n">
-        <v>374239.5495776336</v>
+        <v>416345.6338259618</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.930743809913667e-06</v>
+        <v>5.011245305841532e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.026909722222223</v>
       </c>
       <c r="AH9" t="n">
-        <v>338522.6522144502</v>
+        <v>376610.1908783784</v>
       </c>
     </row>
     <row r="10">
@@ -25293,28 +25293,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>274.2922020158006</v>
+        <v>305.0660118415984</v>
       </c>
       <c r="AB10" t="n">
-        <v>375.2986917159326</v>
+        <v>417.4047759642608</v>
       </c>
       <c r="AC10" t="n">
-        <v>339.4807113135852</v>
+        <v>377.5682499775134</v>
       </c>
       <c r="AD10" t="n">
-        <v>274292.2020158006</v>
+        <v>305066.0118415984</v>
       </c>
       <c r="AE10" t="n">
-        <v>375298.6917159326</v>
+        <v>417404.7759642608</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.92903569604958e-06</v>
+        <v>5.008324621490244e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH10" t="n">
-        <v>339480.7113135852</v>
+        <v>377568.2499775134</v>
       </c>
     </row>
   </sheetData>
@@ -25590,28 +25590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.5015443725315</v>
+        <v>218.1058458516956</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.8654438258535</v>
+        <v>298.422040444973</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.6867067309757</v>
+        <v>269.9410597429572</v>
       </c>
       <c r="AD2" t="n">
-        <v>177501.5443725315</v>
+        <v>218105.8458516956</v>
       </c>
       <c r="AE2" t="n">
-        <v>242865.4438258535</v>
+        <v>298422.040444973</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.943018133167353e-06</v>
+        <v>6.308243385457557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.990885416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>219686.7067309757</v>
+        <v>269941.0597429572</v>
       </c>
     </row>
   </sheetData>
@@ -25887,28 +25887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>359.4074851636583</v>
+        <v>406.128112838463</v>
       </c>
       <c r="AB2" t="n">
-        <v>491.7571771401077</v>
+        <v>555.6824010933984</v>
       </c>
       <c r="AC2" t="n">
-        <v>444.824562339388</v>
+        <v>502.648852638192</v>
       </c>
       <c r="AD2" t="n">
-        <v>359407.4851636583</v>
+        <v>406128.112838463</v>
       </c>
       <c r="AE2" t="n">
-        <v>491757.1771401077</v>
+        <v>555682.4010933985</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.40952039241835e-06</v>
+        <v>4.439378764988192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.411892361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>444824.562339388</v>
+        <v>502648.852638192</v>
       </c>
     </row>
     <row r="3">
@@ -25993,28 +25993,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.187456569795</v>
+        <v>283.7004324701157</v>
       </c>
       <c r="AB3" t="n">
-        <v>336.844539102687</v>
+        <v>388.1714476853603</v>
       </c>
       <c r="AC3" t="n">
-        <v>304.6965690551068</v>
+        <v>351.1249095203173</v>
       </c>
       <c r="AD3" t="n">
-        <v>246187.456569795</v>
+        <v>283700.4324701157</v>
       </c>
       <c r="AE3" t="n">
-        <v>336844.539102687</v>
+        <v>388171.4476853603</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.985276100153449e-06</v>
+        <v>5.500169813191181e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.59765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>304696.5690551068</v>
+        <v>351124.9095203173</v>
       </c>
     </row>
     <row r="4">
@@ -26099,28 +26099,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.1944344668895</v>
+        <v>250.3292559006784</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.016227764078</v>
+        <v>342.5115316704894</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.0013456758198</v>
+        <v>309.8227118059139</v>
       </c>
       <c r="AD4" t="n">
-        <v>222194.4344668895</v>
+        <v>250329.2559006784</v>
       </c>
       <c r="AE4" t="n">
-        <v>304016.227764078</v>
+        <v>342511.5316704893</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.149359683588574e-06</v>
+        <v>5.802482745788513e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.202690972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>275001.3456758198</v>
+        <v>309822.7118059138</v>
       </c>
     </row>
     <row r="5">
@@ -26205,28 +26205,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.0644805661479</v>
+        <v>250.1993019999368</v>
       </c>
       <c r="AB5" t="n">
-        <v>303.8384191039221</v>
+        <v>342.3337230103334</v>
       </c>
       <c r="AC5" t="n">
-        <v>274.840506824633</v>
+        <v>309.6618729547271</v>
       </c>
       <c r="AD5" t="n">
-        <v>222064.4805661479</v>
+        <v>250199.3019999368</v>
       </c>
       <c r="AE5" t="n">
-        <v>303838.4191039221</v>
+        <v>342333.7230103334</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.154062716234804e-06</v>
+        <v>5.811147766149583e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.191840277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>274840.506824633</v>
+        <v>309661.8729547271</v>
       </c>
     </row>
   </sheetData>
@@ -26502,28 +26502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>479.1898956327515</v>
+        <v>537.3871402235942</v>
       </c>
       <c r="AB2" t="n">
-        <v>655.6487555709147</v>
+        <v>735.2767931013331</v>
       </c>
       <c r="AC2" t="n">
-        <v>593.0745585480337</v>
+        <v>665.1030079352015</v>
       </c>
       <c r="AD2" t="n">
-        <v>479189.8956327515</v>
+        <v>537387.1402235941</v>
       </c>
       <c r="AE2" t="n">
-        <v>655648.7555709147</v>
+        <v>735276.7931013331</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.065075508089664e-06</v>
+        <v>3.689106689542348e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.57508680555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>593074.5585480337</v>
+        <v>665103.0079352015</v>
       </c>
     </row>
     <row r="3">
@@ -26608,28 +26608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>312.6878050691895</v>
+        <v>351.4576106867784</v>
       </c>
       <c r="AB3" t="n">
-        <v>427.8332497080368</v>
+        <v>480.8798081571315</v>
       </c>
       <c r="AC3" t="n">
-        <v>387.0014448236382</v>
+        <v>434.9853141856638</v>
       </c>
       <c r="AD3" t="n">
-        <v>312687.8050691895</v>
+        <v>351457.6106867784</v>
       </c>
       <c r="AE3" t="n">
-        <v>427833.2497080368</v>
+        <v>480879.8081571315</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.704229609701784e-06</v>
+        <v>4.830908847705042e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.075086805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>387001.4448236382</v>
+        <v>434985.3141856638</v>
       </c>
     </row>
     <row r="4">
@@ -26714,28 +26714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>265.3745647082406</v>
+        <v>304.0590294712579</v>
       </c>
       <c r="AB4" t="n">
-        <v>363.097186933337</v>
+        <v>416.0269782602341</v>
       </c>
       <c r="AC4" t="n">
-        <v>328.443701022521</v>
+        <v>376.3219473526077</v>
       </c>
       <c r="AD4" t="n">
-        <v>265374.5647082406</v>
+        <v>304059.0294712579</v>
       </c>
       <c r="AE4" t="n">
-        <v>363097.186933337</v>
+        <v>416026.9782602341</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.93344765810739e-06</v>
+        <v>5.240390163242609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.443576388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>328443.701022521</v>
+        <v>376321.9473526077</v>
       </c>
     </row>
     <row r="5">
@@ -26820,28 +26820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>244.1555298923227</v>
+        <v>273.2969121235839</v>
       </c>
       <c r="AB5" t="n">
-        <v>334.0643673802924</v>
+        <v>373.9368921763104</v>
       </c>
       <c r="AC5" t="n">
-        <v>302.1817330199011</v>
+        <v>338.2488800107269</v>
       </c>
       <c r="AD5" t="n">
-        <v>244155.5298923227</v>
+        <v>273296.9121235839</v>
       </c>
       <c r="AE5" t="n">
-        <v>334064.3673802924</v>
+        <v>373936.8921763104</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.053892787142294e-06</v>
+        <v>5.455556596385044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.150607638888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>302181.733019901</v>
+        <v>338248.8800107269</v>
       </c>
     </row>
     <row r="6">
@@ -26926,28 +26926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>239.0425197403518</v>
+        <v>268.183901971613</v>
       </c>
       <c r="AB6" t="n">
-        <v>327.0685213202814</v>
+        <v>366.9410461162959</v>
       </c>
       <c r="AC6" t="n">
-        <v>295.8535606891237</v>
+        <v>331.9207076799485</v>
       </c>
       <c r="AD6" t="n">
-        <v>239042.5197403518</v>
+        <v>268183.9019716129</v>
       </c>
       <c r="AE6" t="n">
-        <v>327068.5213202814</v>
+        <v>366941.0461162959</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.080859616366483e-06</v>
+        <v>5.503730868801227e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.087673611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>295853.5606891237</v>
+        <v>331920.7076799485</v>
       </c>
     </row>
   </sheetData>
